--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE2826-8C38-4EF9-B747-AA9512F91FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C35D53-B4F2-40D3-9041-CC3E059DB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$39</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="149">
   <si>
     <t>lang_code</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>por</t>
+  </si>
+  <si>
+    <t>IPRD</t>
+  </si>
+  <si>
+    <t>IPRDC</t>
+  </si>
+  <si>
+    <t>IPRDCV</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -497,12 +506,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -541,10 +556,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +943,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A72"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,772 +1858,838 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="G50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="G51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F52" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="G52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="G53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="G54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F56" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="G56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D57">
         <v>3</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E57" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="G57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C59" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="4">
-        <v>4</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="G59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="4">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F60" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C61" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="4">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F61" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="G61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C62" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="4">
-        <v>4</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F62" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="G62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F63" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="4">
-        <v>4</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F64" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="G64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C65" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="4">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F65" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="G65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C66" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="4">
-        <v>4</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F66" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="G66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C67" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="4">
-        <v>4</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F67" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="G67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="4">
-        <v>4</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
         <v>114</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F68" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="G68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
         <v>114</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F69" t="s">
         <v>103</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="G69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C70" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="4">
-        <v>4</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F70" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="G70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C71" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="4">
-        <v>4</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F71" t="s">
         <v>109</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="G71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C72" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="4">
-        <v>4</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F72" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="G72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="4">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F73" t="s">
         <v>107</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="G73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C74" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="4">
-        <v>4</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F74" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="G76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C35D53-B4F2-40D3-9041-CC3E059DB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862499C-0249-45A3-BA5E-3D96985B5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="148">
   <si>
     <t>lang_code</t>
   </si>
@@ -262,9 +262,6 @@
     <t>IPR</t>
   </si>
   <si>
-    <t>Ilha do Príncipe</t>
-  </si>
-  <si>
     <t>AGG</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Cidade de Santo António</t>
   </si>
   <si>
-    <t>PGE</t>
-  </si>
-  <si>
     <t>VRA</t>
   </si>
   <si>
@@ -463,13 +457,16 @@
     <t>por</t>
   </si>
   <si>
-    <t>IPRD</t>
-  </si>
-  <si>
-    <t>IPRDC</t>
-  </si>
-  <si>
-    <t>IPRDCV</t>
+    <t>Região Autónoma Do Príncipe</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>RAPD</t>
+  </si>
+  <si>
+    <t>RAPDCV</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +947,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +964,7 @@
     <col min="7" max="7" width="19.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1863,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -1882,7 +1886,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
@@ -1905,13 +1909,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1928,19 +1932,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
@@ -1951,22 +1955,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
         <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>9</v>
@@ -1974,22 +1978,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>9</v>
@@ -1997,22 +2001,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>9</v>
@@ -2020,22 +2024,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>9</v>
@@ -2043,22 +2047,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>9</v>
@@ -2066,19 +2070,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>78</v>
@@ -2089,22 +2093,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>9</v>
@@ -2112,22 +2116,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
         <v>97</v>
-      </c>
-      <c r="C51" t="s">
-        <v>98</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>9</v>
@@ -2135,22 +2139,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
         <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>9</v>
@@ -2158,22 +2162,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
         <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>9</v>
@@ -2181,22 +2185,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
         <v>103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>9</v>
@@ -2204,22 +2208,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>106</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>9</v>
@@ -2227,22 +2231,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
         <v>107</v>
-      </c>
-      <c r="C56" t="s">
-        <v>108</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>9</v>
@@ -2250,68 +2254,68 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
         <v>109</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
         <v>111</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="6">
-        <v>3</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>96</v>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
         <v>112</v>
       </c>
-      <c r="C59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>83</v>
+      <c r="F59" t="s">
+        <v>96</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>9</v>
@@ -2319,7 +2323,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>115</v>
@@ -2331,10 +2335,10 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>9</v>
@@ -2342,7 +2346,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>117</v>
@@ -2354,10 +2358,10 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>9</v>
@@ -2365,7 +2369,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>119</v>
@@ -2377,10 +2381,10 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>9</v>
@@ -2388,7 +2392,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>121</v>
@@ -2400,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>9</v>
@@ -2411,7 +2415,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>123</v>
@@ -2423,10 +2427,10 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>9</v>
@@ -2434,7 +2438,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>125</v>
@@ -2446,10 +2450,10 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>9</v>
@@ -2457,7 +2461,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>127</v>
@@ -2469,10 +2473,10 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>86</v>
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
+        <v>102</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>9</v>
@@ -2480,7 +2484,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>129</v>
@@ -2492,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>9</v>
@@ -2503,7 +2507,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>131</v>
@@ -2515,10 +2519,10 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>9</v>
@@ -2526,7 +2530,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>133</v>
@@ -2538,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>9</v>
@@ -2549,7 +2553,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>135</v>
@@ -2561,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>9</v>
@@ -2572,7 +2576,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>137</v>
@@ -2584,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>9</v>
@@ -2595,7 +2599,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>139</v>
@@ -2607,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>9</v>
@@ -2618,7 +2622,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>141</v>
@@ -2630,76 +2634,53 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="A74" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="6">
-        <v>4</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B76"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="5"/>
-      <c r="G76"/>
+      <c r="D74" s="6">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="G75"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:G74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="0"/>
+        <filter val="por"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862499C-0249-45A3-BA5E-3D96985B5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B251E-60EC-4323-8633-CFA1664874C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="86">
   <si>
     <t>lang_code</t>
   </si>
@@ -49,193 +49,7 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>RSK</t>
-  </si>
-  <si>
-    <t>Rabat Sale Kenitra</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>KTA</t>
-  </si>
-  <si>
-    <t>Kenitra</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>KNT</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>BNMR</t>
-  </si>
-  <si>
-    <t>Ben Mansour</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>14022</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>MNAS</t>
-  </si>
-  <si>
-    <t>Mnasra</t>
-  </si>
-  <si>
-    <t>14053</t>
-  </si>
-  <si>
-    <t>MOGR</t>
-  </si>
-  <si>
-    <t>Mograne</t>
-  </si>
-  <si>
-    <t>14023</t>
-  </si>
-  <si>
-    <t>ASSM</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>MEHD</t>
-  </si>
-  <si>
-    <t>Mehdia</t>
-  </si>
-  <si>
-    <t>14110</t>
-  </si>
-  <si>
-    <t>OLOJ</t>
-  </si>
-  <si>
-    <t>Ouled Oujih</t>
-  </si>
-  <si>
-    <t>14080</t>
-  </si>
-  <si>
-    <t>SDTB</t>
-  </si>
-  <si>
-    <t>Sidi Taibi</t>
-  </si>
-  <si>
-    <t>14025</t>
-  </si>
-  <si>
-    <t>SATZ</t>
-  </si>
-  <si>
-    <t>Sidi Allal Tazi</t>
-  </si>
-  <si>
-    <t>14050</t>
-  </si>
-  <si>
-    <t>RBT</t>
-  </si>
-  <si>
-    <t>Rabat</t>
-  </si>
-  <si>
-    <t>RAB</t>
-  </si>
-  <si>
-    <t>AGDL</t>
-  </si>
-  <si>
-    <t>Agdal</t>
-  </si>
-  <si>
-    <t>10106</t>
-  </si>
-  <si>
-    <t>QRHS</t>
-  </si>
-  <si>
-    <t>Quartier Hassan</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>SOUS</t>
-  </si>
-  <si>
-    <t>Souissi</t>
-  </si>
-  <si>
-    <t>10105</t>
-  </si>
-  <si>
-    <t>MADI</t>
-  </si>
-  <si>
-    <t>Madinat Al Irfane</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>HARD</t>
-  </si>
-  <si>
-    <t>Hay Riad</t>
-  </si>
-  <si>
-    <t>10104</t>
-  </si>
-  <si>
-    <t>MDDR</t>
-  </si>
-  <si>
-    <t>Medina de Rabat</t>
-  </si>
-  <si>
-    <t>10036</t>
-  </si>
-  <si>
-    <t>ELYF</t>
-  </si>
-  <si>
-    <t>EL YOUSSOUFIA</t>
-  </si>
-  <si>
-    <t>10190</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>10113</t>
   </si>
   <si>
     <t>STP</t>
@@ -473,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -486,21 +300,6 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -550,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,8 +358,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -946,11 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,32 +783,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1021,90 +817,90 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -1113,1573 +909,1492 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>40</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>9</v>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>9</v>
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>146</v>
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" t="s">
-        <v>93</v>
+        <v>50</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D63">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="6">
-        <v>4</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="5"/>
-      <c r="G75"/>
+        <v>7</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G74" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="por"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B251E-60EC-4323-8633-CFA1664874C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE871A-6EAD-4832-93B1-B8DEFE22BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="87">
   <si>
     <t>lang_code</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>RAPDCV</t>
+  </si>
+  <si>
+    <t>Ilhas</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -843,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE871A-6EAD-4832-93B1-B8DEFE22BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DA8CE-33C7-47BF-9744-28871E7ED80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
   <si>
     <t>lang_code</t>
   </si>
@@ -46,9 +46,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>Ilha de São Tomé</t>
-  </si>
-  <si>
-    <t>Ilha</t>
   </si>
   <si>
     <t>IPR</t>
@@ -746,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,1612 +782,807 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-      <c r="E63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
